--- a/Result/LSTM Multi/Service/CAN.xlsx
+++ b/Result/LSTM Multi/Service/CAN.xlsx
@@ -399,7 +399,7 @@
         <v>1997</v>
       </c>
       <c r="B2">
-        <v>16.0447460841663</v>
+        <v>62.8229287844789</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -407,7 +407,7 @@
         <v>1998</v>
       </c>
       <c r="B3">
-        <v>16.25312719621408</v>
+        <v>63.58332828303771</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -415,7 +415,7 @@
         <v>1999</v>
       </c>
       <c r="B4">
-        <v>17.07630687844336</v>
+        <v>62.57092597902406</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -423,7 +423,7 @@
         <v>2000</v>
       </c>
       <c r="B5">
-        <v>17.02443712519088</v>
+        <v>61.30066732184333</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -431,7 +431,7 @@
         <v>2001</v>
       </c>
       <c r="B6">
-        <v>16.03874062392151</v>
+        <v>62.54146880610904</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -439,7 +439,7 @@
         <v>2002</v>
       </c>
       <c r="B7">
-        <v>15.70905941004635</v>
+        <v>63.01576543934884</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -447,7 +447,7 @@
         <v>2003</v>
       </c>
       <c r="B8">
-        <v>14.66325348159223</v>
+        <v>62.92361298179227</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -455,7 +455,7 @@
         <v>2004</v>
       </c>
       <c r="B9">
-        <v>14.29554309123741</v>
+        <v>62.40435898434108</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -463,7 +463,7 @@
         <v>2005</v>
       </c>
       <c r="B10">
-        <v>13.37476161969874</v>
+        <v>62.03346574533985</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -471,7 +471,7 @@
         <v>2006</v>
       </c>
       <c r="B11">
-        <v>12.58334034935793</v>
+        <v>62.72319310638832</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -479,7 +479,7 @@
         <v>2007</v>
       </c>
       <c r="B12">
-        <v>11.90294486771548</v>
+        <v>63.09642128215205</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -487,7 +487,7 @@
         <v>2008</v>
       </c>
       <c r="B13">
-        <v>10.6115120938541</v>
+        <v>62.73445420750253</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -495,7 +495,7 @@
         <v>2009</v>
       </c>
       <c r="B14">
-        <v>10.06119641018396</v>
+        <v>66.86904248237485</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -503,7 +503,7 @@
         <v>2010</v>
       </c>
       <c r="B15">
-        <v>10.02715411219138</v>
+        <v>65.73341912528225</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -511,7 +511,7 @@
         <v>2011</v>
       </c>
       <c r="B16">
-        <v>9.95539617251473</v>
+        <v>64.79820615164174</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -519,7 +519,7 @@
         <v>2012</v>
       </c>
       <c r="B17">
-        <v>10.02016741416535</v>
+        <v>65.16324112510638</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -527,7 +527,7 @@
         <v>2013</v>
       </c>
       <c r="B18">
-        <v>9.588492358255939</v>
+        <v>65.16744127608951</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -535,7 +535,7 @@
         <v>2014</v>
       </c>
       <c r="B19">
-        <v>9.426150823826994</v>
+        <v>64.9019974464847</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -543,7 +543,7 @@
         <v>2015</v>
       </c>
       <c r="B20">
-        <v>9.975422544339398</v>
+        <v>67.00099776833487</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -551,7 +551,7 @@
         <v>2016</v>
       </c>
       <c r="B21">
-        <v>9.928004135207868</v>
+        <v>67.95885329935381</v>
       </c>
     </row>
   </sheetData>
@@ -580,7 +580,7 @@
         <v>2017</v>
       </c>
       <c r="B2">
-        <v>10.07208633422852</v>
+        <v>65.44397735595703</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -588,7 +588,7 @@
         <v>2018</v>
       </c>
       <c r="B3">
-        <v>10.08983325958252</v>
+        <v>65.938232421875</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -596,7 +596,7 @@
         <v>2019</v>
       </c>
       <c r="B4">
-        <v>10.04567718505859</v>
+        <v>65.74768829345703</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -604,7 +604,7 @@
         <v>2020</v>
       </c>
       <c r="B5">
-        <v>10.09316158294678</v>
+        <v>65.40176391601562</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -612,7 +612,7 @@
         <v>2021</v>
       </c>
       <c r="B6">
-        <v>10.08825302124023</v>
+        <v>65.53380584716797</v>
       </c>
     </row>
   </sheetData>
@@ -641,7 +641,7 @@
         <v>1997</v>
       </c>
       <c r="B2">
-        <v>16.0447460841663</v>
+        <v>62.8229287844789</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -649,7 +649,7 @@
         <v>1998</v>
       </c>
       <c r="B3">
-        <v>16.25312719621408</v>
+        <v>63.58332828303771</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -657,7 +657,7 @@
         <v>1999</v>
       </c>
       <c r="B4">
-        <v>17.07630687844336</v>
+        <v>62.57092597902406</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -665,7 +665,7 @@
         <v>2000</v>
       </c>
       <c r="B5">
-        <v>17.02443712519088</v>
+        <v>61.30066732184333</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -673,7 +673,7 @@
         <v>2001</v>
       </c>
       <c r="B6">
-        <v>16.03874062392151</v>
+        <v>62.54146880610904</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -681,7 +681,7 @@
         <v>2002</v>
       </c>
       <c r="B7">
-        <v>15.70905941004635</v>
+        <v>63.01576543934884</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -689,7 +689,7 @@
         <v>2003</v>
       </c>
       <c r="B8">
-        <v>14.66325348159223</v>
+        <v>62.92361298179227</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -697,7 +697,7 @@
         <v>2004</v>
       </c>
       <c r="B9">
-        <v>14.29554309123741</v>
+        <v>62.40435898434108</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -705,7 +705,7 @@
         <v>2005</v>
       </c>
       <c r="B10">
-        <v>13.37476161969874</v>
+        <v>62.03346574533985</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -713,7 +713,7 @@
         <v>2006</v>
       </c>
       <c r="B11">
-        <v>12.58334034935793</v>
+        <v>62.72319310638832</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -721,7 +721,7 @@
         <v>2007</v>
       </c>
       <c r="B12">
-        <v>11.90294486771548</v>
+        <v>63.09642128215205</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -729,7 +729,7 @@
         <v>2008</v>
       </c>
       <c r="B13">
-        <v>10.6115120938541</v>
+        <v>62.73445420750253</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -737,7 +737,7 @@
         <v>2009</v>
       </c>
       <c r="B14">
-        <v>10.06119641018396</v>
+        <v>66.86904248237485</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -745,7 +745,7 @@
         <v>2010</v>
       </c>
       <c r="B15">
-        <v>10.02715411219138</v>
+        <v>65.73341912528225</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -753,7 +753,7 @@
         <v>2011</v>
       </c>
       <c r="B16">
-        <v>9.95539617251473</v>
+        <v>64.79820615164174</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -761,7 +761,7 @@
         <v>2012</v>
       </c>
       <c r="B17">
-        <v>10.02016741416535</v>
+        <v>65.16324112510638</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -769,7 +769,7 @@
         <v>2013</v>
       </c>
       <c r="B18">
-        <v>9.588492358255939</v>
+        <v>65.16744127608951</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -777,7 +777,7 @@
         <v>2014</v>
       </c>
       <c r="B19">
-        <v>9.426150823826994</v>
+        <v>64.9019974464847</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -785,7 +785,7 @@
         <v>2015</v>
       </c>
       <c r="B20">
-        <v>9.975422544339398</v>
+        <v>67.00099776833487</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -793,7 +793,7 @@
         <v>2016</v>
       </c>
       <c r="B21">
-        <v>9.928004135207868</v>
+        <v>67.95885329935381</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -801,7 +801,7 @@
         <v>2017</v>
       </c>
       <c r="B22">
-        <v>9.68457578828024</v>
+        <v>67.11667206224678</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -809,7 +809,7 @@
         <v>2018</v>
       </c>
       <c r="B23">
-        <v>9.866071588318858</v>
+        <v>66.86584615274512</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -817,7 +817,7 @@
         <v>2019</v>
       </c>
       <c r="B24">
-        <v>7.718852878180762</v>
+        <v>67.53994494930434</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -825,7 +825,7 @@
         <v>2020</v>
       </c>
       <c r="B25">
-        <v>7.308124220877686</v>
+        <v>67.85737585467527</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -833,7 +833,7 @@
         <v>2021</v>
       </c>
       <c r="B26">
-        <v>6.897395563574609</v>
+        <v>68.17480676004618</v>
       </c>
     </row>
   </sheetData>
@@ -862,7 +862,7 @@
         <v>2022</v>
       </c>
       <c r="B2">
-        <v>10.00953102111816</v>
+        <v>65.60331726074219</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -870,7 +870,7 @@
         <v>2023</v>
       </c>
       <c r="B3">
-        <v>10.04934310913086</v>
+        <v>65.48529052734375</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -878,7 +878,7 @@
         <v>2024</v>
       </c>
       <c r="B4">
-        <v>10.01910305023193</v>
+        <v>65.15000915527344</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -886,7 +886,7 @@
         <v>2025</v>
       </c>
       <c r="B5">
-        <v>10.09933853149414</v>
+        <v>64.79715728759766</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -894,7 +894,7 @@
         <v>2026</v>
       </c>
       <c r="B6">
-        <v>10.11874294281006</v>
+        <v>64.94792938232422</v>
       </c>
     </row>
   </sheetData>
